--- a/docs/data/heart_modificado.xlsx
+++ b/docs/data/heart_modificado.xlsx
@@ -61,13 +61,13 @@
     <t xml:space="preserve">age_sex</t>
   </si>
   <si>
-    <t xml:space="preserve">birth_day</t>
+    <t xml:space="preserve">birth_year</t>
   </si>
   <si>
     <t xml:space="preserve">birth_month</t>
   </si>
   <si>
-    <t xml:space="preserve">birth_year</t>
+    <t xml:space="preserve">birth_day</t>
   </si>
   <si>
     <t xml:space="preserve">2.3</t>
@@ -490,7 +490,7 @@
   <dimension ref="A1:P304"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
